--- a/data/certificate.xlsx
+++ b/data/certificate.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BBBC8D-F346-490F-9AE7-50C11D2CB1A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5D7963-BBE8-4A95-8B27-D701D4D62443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="19365" windowHeight="12187" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>what</t>
   </si>
   <si>
-    <t>Certified Professional in Accessibility Core Competencies</t>
-  </si>
-  <si>
     <t>when</t>
   </si>
   <si>
@@ -40,112 +37,19 @@
     <t>why</t>
   </si>
   <si>
-    <t>International Association of Accessibility Professional</t>
-  </si>
-  <si>
-    <t>Atlanta, GA</t>
-  </si>
-  <si>
-    <t>Apr. 2017 - Present</t>
-  </si>
-  <si>
-    <t>Feb. 2014 - Present</t>
-  </si>
-  <si>
-    <t>Korean Ministry of Education</t>
-  </si>
-  <si>
-    <t>Sejong, South Korea</t>
-  </si>
-  <si>
-    <t>Dec. 2019 - Present</t>
-  </si>
-  <si>
-    <t>NV Access</t>
-  </si>
-  <si>
-    <t>Lucia South, QLD, Australia</t>
-  </si>
-  <si>
-    <t>Certified Expert with NVDA (Non-Visual Desktop Access) Screen Reader</t>
-  </si>
-  <si>
-    <t>Python for Data Science and AI</t>
-  </si>
-  <si>
-    <t>Apr. 2020 - Present</t>
-  </si>
-  <si>
-    <t>IBM</t>
-  </si>
-  <si>
-    <t>Data Analysis with Python</t>
-  </si>
-  <si>
-    <t>Databases and SQL for Data Science</t>
-  </si>
-  <si>
-    <t>Data Science Methodology</t>
-  </si>
-  <si>
-    <t>Mar. 2020 - Present</t>
-  </si>
-  <si>
-    <t>Open Source Tools for Data Science</t>
-  </si>
-  <si>
-    <t>\href{https://www.youracclaim.com/badges/13a8db8a-3803-4880-8164-d0cb9aecfecc/public_url}{See certificate.}</t>
-  </si>
-  <si>
-    <t>\href{https://www.youracclaim.com/badges/49264c60-e6a1-4227-b933-567c232cf610/public_url}{See certificate.}</t>
-  </si>
-  <si>
-    <t>\href{https://www.coursera.org}{Coursera}</t>
-  </si>
-  <si>
-    <t>\href{https://www.youracclaim.com/badges/6e5fec1c-53ff-4ec1-8602-956e88ece5a8/public_url}{See certificate.}</t>
-  </si>
-  <si>
-    <t>\href{https://www.youracclaim.com/badges/98ce261d-0fa6-47ff-95f0-c31e0cb2d9fe/public_url}{See certificate.}</t>
-  </si>
-  <si>
-    <t>\href{https://www.youracclaim.com/badges/a78f0b2a-f708-46a4-81ae-16ea6bde3618/public_url}{See certificate.}</t>
-  </si>
-  <si>
-    <t>\href{https://jooyoungseo.github.io/certificates/NVDA_Certified_Expert.pdf}{See certificate.}</t>
-  </si>
-  <si>
-    <t>\href{https://jooyoungseo.github.io/certificates/CPACC_Certificate.pdf}{See certificate.}</t>
-  </si>
-  <si>
-    <t>Jun. 2020 - Present</t>
-  </si>
-  <si>
-    <t>RStudio PBC</t>
-  </si>
-  <si>
-    <t>\href{https://jooyoungseo.github.io/certificates/seo+jooyoung+shiny.pdf}{See certificate.}</t>
-  </si>
-  <si>
-    <t>\href{https://education.rstudio.com/trainers/people/seo+jooyoung/}{Find me in the Rstudio's trusted trainer list}</t>
-  </si>
-  <si>
-    <t>\href{https://jooyoungseo.github.io/certificates/Teacher_Certificate_for_English.pdf}{See certificate.}</t>
-  </si>
-  <si>
-    <t>\href{https://jooyoungseo.github.io/certificates/Teacher_Certificate_for_Education.pdf}{See certificate.}</t>
-  </si>
-  <si>
-    <t>Licensed English Teacher (Secondary Education)</t>
-  </si>
-  <si>
-    <t>Licensed General Education Teacher (Secondary Education)</t>
-  </si>
-  <si>
-    <t>Double-Certified Data Science Instructor for Tidyverse and Shiny</t>
-  </si>
-  <si>
-    <t>Boston, MA</t>
+    <t>2001-2009</t>
+  </si>
+  <si>
+    <t>State of Utah</t>
+  </si>
+  <si>
+    <t>Endorsements: mathematics level 4 and chemistry</t>
+  </si>
+  <si>
+    <t>Teaching License</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary Education </t>
   </si>
 </sst>
 </file>
@@ -478,204 +382,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="5" max="5" width="41.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3"/>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
